--- a/spliced/walkingToRunning/2023-03-30_14-22-52/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-22-52/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.229663805724545</v>
+        <v>-9.370760740737579</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.525337374588474</v>
+        <v>-3.25683893229624</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.96132779876562</v>
+        <v>-5.812264925753899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4330965876579284</v>
+        <v>0.7681222558021545</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.5522730350494385</v>
+        <v>-0.0100534334778785</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6494118571281433</v>
+        <v>-2.038516759872437</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.021905657392623</v>
+        <v>-8.167156538812145</v>
       </c>
       <c r="D3" t="n">
-        <v>-16.9095842352818</v>
+        <v>-0.02954524458807972</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.796676506284199</v>
+        <v>-3.384951503568034</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5609283447265625</v>
+        <v>-0.3067295849323272</v>
       </c>
       <c r="G3" t="n">
-        <v>1.275720715522766</v>
+        <v>-1.010869383811951</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.33412766456604</v>
+        <v>-0.750079333782196</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-9.370760740737579</v>
+        <v>-0.9182361909166679</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.25683893229624</v>
+        <v>-0.4588523148410963</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.812264925753899</v>
+        <v>-0.8686674579775859</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7681222558021545</v>
+        <v>-0.4047339260578155</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0100534334778785</v>
+        <v>-2.28332781791687</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.038516759872437</v>
+        <v>0.921320617198944</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-8.167156538812145</v>
+        <v>5.347650556003387</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.02954524458807972</v>
+        <v>3.73906264585607</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.384951503568034</v>
+        <v>-1.996283573262832</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3067295849323272</v>
+        <v>-0.3051316738128662</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.010869383811951</v>
+        <v>1.929260492324829</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.750079333782196</v>
+        <v>-1.74610161781311</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.9182361909166679</v>
+        <v>10.92234480758596</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4588523148410963</v>
+        <v>3.812681239115181</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.8686674579775859</v>
+        <v>-1.331586267613695</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4047339260578155</v>
+        <v>3.213436841964722</v>
       </c>
       <c r="G6" t="n">
-        <v>-2.28332781791687</v>
+        <v>1.757220268249511</v>
       </c>
       <c r="H6" t="n">
-        <v>0.921320617198944</v>
+        <v>-4.128565788269043</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5.347650556003387</v>
+        <v>9.719275569484333</v>
       </c>
       <c r="D7" t="n">
-        <v>3.73906264585607</v>
+        <v>0.7055869749765016</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.996283573262832</v>
+        <v>-0.7485139332207429</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3051316738128662</v>
+        <v>-2.472412109375</v>
       </c>
       <c r="G7" t="n">
-        <v>1.929260492324829</v>
+        <v>-2.355233192443848</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.74610161781311</v>
+        <v>1.659016251564026</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.92234480758596</v>
+        <v>13.93544812655545</v>
       </c>
       <c r="D8" t="n">
-        <v>3.812681239115181</v>
+        <v>-16.89472820316476</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.331586267613695</v>
+        <v>-4.748856436612479</v>
       </c>
       <c r="F8" t="n">
-        <v>3.213436841964722</v>
+        <v>-5.059939384460449</v>
       </c>
       <c r="G8" t="n">
-        <v>1.757220268249511</v>
+        <v>-0.0345545150339603</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.128565788269043</v>
+        <v>1.632384657859802</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>9.719275569484333</v>
+        <v>7.450619108536684</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7055869749765016</v>
+        <v>-0.9767160588260171</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7485139332207429</v>
+        <v>19.51188305815956</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.472412109375</v>
+        <v>-4.271111488342285</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.355233192443848</v>
+        <v>6.537594318389893</v>
       </c>
       <c r="H9" t="n">
-        <v>1.659016251564026</v>
+        <v>0.8408931493759155</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13.93544812655545</v>
+        <v>9.203229472647893</v>
       </c>
       <c r="D10" t="n">
-        <v>-16.89472820316476</v>
+        <v>-3.916383311759566</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.748856436612479</v>
+        <v>12.78814014158619</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.059939384460449</v>
+        <v>0.7947538495063782</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0345545150339603</v>
+        <v>-4.166182518005371</v>
       </c>
       <c r="H10" t="n">
-        <v>1.632384657859802</v>
+        <v>-1.592170834541321</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.450619108536684</v>
+        <v>5.404519542849628</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.9767160588260171</v>
+        <v>-19.64550725151458</v>
       </c>
       <c r="E11" t="n">
-        <v>19.51188305815956</v>
+        <v>-2.510032804843359</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.271111488342285</v>
+        <v>4.600943565368652</v>
       </c>
       <c r="G11" t="n">
-        <v>6.537594318389893</v>
+        <v>-7.544669151306152</v>
       </c>
       <c r="H11" t="n">
-        <v>0.8408931493759155</v>
+        <v>-3.569834232330322</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.203229472647893</v>
+        <v>13.85390501755906</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.916383311759566</v>
+        <v>10.65629918758675</v>
       </c>
       <c r="E12" t="n">
-        <v>12.78814014158619</v>
+        <v>-23.50188240638136</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7947538495063782</v>
+        <v>4.194012641906738</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.166182518005371</v>
+        <v>4.047538757324219</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.592170834541321</v>
+        <v>-7.187472343444824</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.404519542849628</v>
+        <v>-15.78896728791737</v>
       </c>
       <c r="D13" t="n">
-        <v>-19.64550725151458</v>
+        <v>-2.495026884036708</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.510032804843359</v>
+        <v>-9.361624100628198</v>
       </c>
       <c r="F13" t="n">
-        <v>4.600943565368652</v>
+        <v>-5.213337898254395</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.544669151306152</v>
+        <v>-1.143494844436646</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.569834232330322</v>
+        <v>4.552274703979492</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.85390501755906</v>
+        <v>9.923073837659718</v>
       </c>
       <c r="D14" t="n">
-        <v>10.65629918758675</v>
+        <v>-36.7092630550327</v>
       </c>
       <c r="E14" t="n">
-        <v>-23.50188240638136</v>
+        <v>23.39232449509959</v>
       </c>
       <c r="F14" t="n">
-        <v>4.194012641906738</v>
+        <v>-6.584865570068359</v>
       </c>
       <c r="G14" t="n">
-        <v>4.047538757324219</v>
+        <v>3.639542579650879</v>
       </c>
       <c r="H14" t="n">
-        <v>-7.187472343444824</v>
+        <v>3.124820232391357</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-15.78896728791737</v>
+        <v>-7.913778024561013</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.495026884036708</v>
+        <v>-1.389618308296037</v>
       </c>
       <c r="E15" t="n">
-        <v>-9.361624100628198</v>
+        <v>10.58147436029777</v>
       </c>
       <c r="F15" t="n">
-        <v>-5.213337898254395</v>
+        <v>0.5002082586288452</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.143494844436646</v>
+        <v>12.75873851776123</v>
       </c>
       <c r="H15" t="n">
-        <v>4.552274703979492</v>
+        <v>-0.6872287392616272</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.923073837659718</v>
+        <v>22.76746183283226</v>
       </c>
       <c r="D16" t="n">
-        <v>-36.7092630550327</v>
+        <v>-2.0813869372752</v>
       </c>
       <c r="E16" t="n">
-        <v>23.39232449509959</v>
+        <v>18.41511002708894</v>
       </c>
       <c r="F16" t="n">
-        <v>-6.584865570068359</v>
+        <v>-0.09793774783611291</v>
       </c>
       <c r="G16" t="n">
-        <v>3.639542579650879</v>
+        <v>-2.606635570526123</v>
       </c>
       <c r="H16" t="n">
-        <v>3.124820232391357</v>
+        <v>1.64676570892334</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-7.913778024561013</v>
+        <v>-10.96762119483142</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.389618308296037</v>
+        <v>-13.92066524471113</v>
       </c>
       <c r="E17" t="n">
-        <v>10.58147436029777</v>
+        <v>-14.51778084767945</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5002082586288452</v>
+        <v>7.020159244537354</v>
       </c>
       <c r="G17" t="n">
-        <v>12.75873851776123</v>
+        <v>-8.503939628601074</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.6872287392616272</v>
+        <v>-4.922720432281494</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.76746183283226</v>
+        <v>1.213289821849271</v>
       </c>
       <c r="D18" t="n">
-        <v>-2.0813869372752</v>
+        <v>1.019793061649235</v>
       </c>
       <c r="E18" t="n">
-        <v>18.41511002708894</v>
+        <v>-14.16178052565629</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.09793774783611291</v>
+        <v>4.105595588684082</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.606635570526123</v>
+        <v>-6.451707363128662</v>
       </c>
       <c r="H18" t="n">
-        <v>1.64676570892334</v>
+        <v>-2.353302240371704</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-10.96762119483142</v>
+        <v>-7.05744662867424</v>
       </c>
       <c r="D19" t="n">
-        <v>-13.92066524471113</v>
+        <v>-7.422974802250357</v>
       </c>
       <c r="E19" t="n">
-        <v>-14.51778084767945</v>
+        <v>-4.164491389132067</v>
       </c>
       <c r="F19" t="n">
-        <v>7.020159244537354</v>
+        <v>-1.717672348022461</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.503939628601074</v>
+        <v>1.564407467842102</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.922720432281494</v>
+        <v>1.324523210525513</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.213289821849271</v>
+        <v>4.854760260603785</v>
       </c>
       <c r="D20" t="n">
-        <v>1.019793061649235</v>
+        <v>-2.305751679709482</v>
       </c>
       <c r="E20" t="n">
-        <v>-14.16178052565629</v>
+        <v>28.47659013605825</v>
       </c>
       <c r="F20" t="n">
-        <v>4.105595588684082</v>
+        <v>-12.60414218902588</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.451707363128662</v>
+        <v>-15.56717586517334</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.353302240371704</v>
+        <v>2.47767186164856</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-7.05744662867424</v>
+        <v>3.906654929683194</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.422974802250357</v>
+        <v>12.70785129771528</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.164491389132067</v>
+        <v>6.405859976332387</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.717672348022461</v>
+        <v>7.210841655731201</v>
       </c>
       <c r="G21" t="n">
-        <v>1.564407467842102</v>
+        <v>-12.07630348205566</v>
       </c>
       <c r="H21" t="n">
-        <v>1.324523210525513</v>
+        <v>8.885769844055176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>36.5629992182982</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-53.32195605627643</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10.55735367024117</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.924999475479126</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-10.15509986877441</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.8653942346572876</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>24.49468200994281</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.5662195973802113</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-16.59405546058915</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.971939086914063</v>
+      </c>
+      <c r="G23" t="n">
+        <v>14.02054500579834</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-4.391685962677002</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-4.553085171799378</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.362173399773924</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-25.30839441912213</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.465487957000732</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.488490343093872</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5.172791004180908</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-26.14233835142689</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-26.40326150402269</v>
+      </c>
+      <c r="E25" t="n">
+        <v>16.80009495834494</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-6.064484119415283</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.030177354812622</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.91339921951294</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-10.68485793376924</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.987670397866637</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.468654218302412</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.608199417591095</v>
+      </c>
+      <c r="G26" t="n">
+        <v>12.21864986419678</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3.169827461242676</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11.52886270721615</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.051807858825063</v>
+      </c>
+      <c r="E27" t="n">
+        <v>21.48786570044184</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2609232068061828</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.39666223526001</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.653707027435303</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-43.52052723983955</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-14.64106700646965</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-27.88186194993908</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.485929012298584</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.756554484367371</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-2.664892196655273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-13.80793043283201</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.756517190200164</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-21.9789466857904</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.498893618583679</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.116081237792969</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.421479225158691</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.44925512771311</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-2.411408648771987</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-8.979007841774775</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.8995492458343506</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.140432238578796</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.6262423396110535</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4.063052345725026</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.658945868996846</v>
+      </c>
+      <c r="E31" t="n">
+        <v>20.40397767459713</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-11.36417484283447</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-11.00677871704102</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-5.598630428314209</v>
       </c>
     </row>
   </sheetData>
